--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2867129.806235021</v>
+        <v>2963799.782719396</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095089</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288.6891476349475</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>2.299526941741362</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>9.764863467406547</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.3302879382942</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>334.2205967410234</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>47.43832731743225</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>56.51772907233346</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>49.28375166179438</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>91.16844254880841</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>97.88890196728795</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>33.21937696961096</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.4197124582186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,13 +1426,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27.87679665314561</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>184.2833048169108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>36.56944426859069</v>
       </c>
       <c r="H16" t="n">
-        <v>18.26879610203982</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.5873298926981</v>
+        <v>94.72359350001044</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>77.31354443380498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>228.9801479190403</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>112.3514341322539</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>282.6548612319561</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>27.19292662790628</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>8.140001196963022</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>66.06391530585695</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>180.4082787866282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>90.15502218119873</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3320,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>38.39168237993776</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.29623371587715</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>59.9032091929889</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3904,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.3076024537359</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>35.19569619650115</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292541</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881755</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851108</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247718</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093657</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414545</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004706</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660443454</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>115.9418712384132</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4369,13 @@
         <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>718.2654857545084</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>463.5809975486215</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>463.5809975486215</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
         <v>235.5914466506042</v>
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1310.22335213854</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2418.025411522045</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2086.962524178474</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2086.962524178474</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2086.962524178474</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1696.823192202662</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>493.4767912696608</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>493.4767912696608</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>493.4767912696608</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>648.9304977249103</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>428.1379185813802</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1082.673301190929</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830418</v>
+        <v>1116.984198029372</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
         <v>632.3182666762914</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W8" t="n">
         <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1859.412473230863</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="Y8" t="n">
-        <v>1469.273141255051</v>
+        <v>1485.946714969784</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9725150767608</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767608</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>579.982325640618</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>579.982325640618</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T10" t="n">
-        <v>579.982325640618</v>
+        <v>484.423641878219</v>
       </c>
       <c r="U10" t="n">
-        <v>579.982325640618</v>
+        <v>484.423641878219</v>
       </c>
       <c r="V10" t="n">
-        <v>579.982325640618</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W10" t="n">
-        <v>579.982325640618</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X10" t="n">
-        <v>579.982325640618</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.9725150767608</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M11" t="n">
-        <v>2209.609207880054</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N11" t="n">
-        <v>3189.361480106701</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5151,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>823.6560115477723</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C13" t="n">
-        <v>654.7198286198654</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D13" t="n">
-        <v>654.7198286198654</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5227,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1928.185085646981</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1928.185085646981</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898817</v>
+        <v>1673.500597441094</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861856</v>
+        <v>1384.083427404133</v>
       </c>
       <c r="X13" t="n">
-        <v>1226.097055521542</v>
+        <v>1156.093876506116</v>
       </c>
       <c r="Y13" t="n">
-        <v>1005.304476378012</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9043113423046</v>
+        <v>692.8920075170273</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9043113423046</v>
+        <v>523.9558245891204</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9043113423046</v>
+        <v>523.9558245891204</v>
       </c>
       <c r="E16" t="n">
-        <v>260.9043113423046</v>
+        <v>376.0427310067273</v>
       </c>
       <c r="F16" t="n">
-        <v>114.0143638443942</v>
+        <v>376.0427310067273</v>
       </c>
       <c r="G16" t="n">
-        <v>114.0143638443942</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>874.540472347267</v>
       </c>
     </row>
     <row r="17">
@@ -5513,46 +5515,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.7782212305366</v>
+        <v>970.5459590456827</v>
       </c>
       <c r="C19" t="n">
-        <v>241.7782212305366</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7782212305366</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>1066.226356520441</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>1066.226356520441</v>
       </c>
       <c r="Y19" t="n">
-        <v>241.7782212305366</v>
+        <v>970.5459590456827</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5746,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,16 +5755,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5805,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5820,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3314.41660243073</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C22" t="n">
-        <v>3145.480419502823</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D22" t="n">
-        <v>2995.363780090488</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763412</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>4488.948855545364</v>
+        <v>1533.364503225429</v>
       </c>
       <c r="V22" t="n">
-        <v>4234.264367339478</v>
+        <v>1278.680015019542</v>
       </c>
       <c r="W22" t="n">
-        <v>3944.847197302517</v>
+        <v>989.2628449825811</v>
       </c>
       <c r="X22" t="n">
-        <v>3716.8576464045</v>
+        <v>761.2732940845638</v>
       </c>
       <c r="Y22" t="n">
-        <v>3496.06506726097</v>
+        <v>540.4807149410336</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5968,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>818.2062848686767</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1682.725100522031</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.5901955154781</v>
+        <v>3086.205473691319</v>
       </c>
       <c r="C25" t="n">
-        <v>452.5901955154781</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D25" t="n">
-        <v>452.5901955154781</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E25" t="n">
-        <v>452.5901955154781</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F25" t="n">
-        <v>452.5901955154781</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>4364.599222816073</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>4079.089261975713</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>3824.404773769827</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>3534.987603732866</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590082</v>
+        <v>3306.998052834849</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154781</v>
+        <v>3086.205473691319</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6214,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M26" t="n">
-        <v>1897.676284104189</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>981.9948743913839</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C28" t="n">
-        <v>813.058691463477</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>662.9420520511412</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>515.0289584687481</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6406,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.060509258584</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.643339221624</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>1163.643339221624</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>1163.643339221624</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6470,43 +6472,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>730.2297869963112</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C31" t="n">
-        <v>561.2936040684043</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>411.1769646560685</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
         <v>263.2638710736754</v>
@@ -6610,13 +6612,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6646,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1889.61223852303</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1667.845623092556</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>1378.7427562182</v>
       </c>
       <c r="V31" t="n">
-        <v>1360.660381868098</v>
+        <v>1124.058268012313</v>
       </c>
       <c r="W31" t="n">
-        <v>1360.660381868098</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="X31" t="n">
-        <v>1132.670830970081</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y31" t="n">
-        <v>911.8782518265509</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6710,10 +6712,10 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3008.107474639232</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3888.072124968687</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107236</v>
@@ -6753,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,16 +6809,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>3789.893669780146</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>3620.957486852239</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>3470.840847439903</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>3322.92775385751</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>3176.0378063596</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>3008.334969734319</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>4488.948855545364</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>4488.948855545364</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>4199.531685508403</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>3971.542134610386</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998329</v>
+        <v>3971.542134610386</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6935,10 +6937,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
         <v>1797.117834600129</v>
@@ -6968,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>841.6225995718539</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="C37" t="n">
-        <v>672.686416643947</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D37" t="n">
-        <v>633.9069394924948</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E37" t="n">
-        <v>485.9938459101016</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689058</v>
+        <v>4364.599222816073</v>
       </c>
       <c r="U37" t="n">
-        <v>1385.724257814702</v>
+        <v>4075.496355941717</v>
       </c>
       <c r="V37" t="n">
-        <v>1131.039769608815</v>
+        <v>3820.81186773583</v>
       </c>
       <c r="W37" t="n">
-        <v>841.6225995718539</v>
+        <v>3531.394697698869</v>
       </c>
       <c r="X37" t="n">
-        <v>841.6225995718539</v>
+        <v>3303.405146800852</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.6225995718539</v>
+        <v>3082.612567657322</v>
       </c>
     </row>
     <row r="38">
@@ -7175,31 +7177,31 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N38" t="n">
-        <v>2883.993034926781</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7257,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3314.41660243073</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="C40" t="n">
-        <v>3145.480419502823</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="D40" t="n">
-        <v>3145.480419502823</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E40" t="n">
-        <v>3145.480419502823</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F40" t="n">
-        <v>3145.480419502823</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G40" t="n">
-        <v>2977.777582877542</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4778.051722419721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>4488.948855545364</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V40" t="n">
-        <v>4234.264367339478</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W40" t="n">
-        <v>3944.847197302517</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X40" t="n">
-        <v>3716.8576464045</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y40" t="n">
-        <v>3496.06506726097</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7411,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888612</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L41" t="n">
-        <v>1797.117834600128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2330.649739272053</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330835</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7494,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>844.8098170227823</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C43" t="n">
-        <v>675.8736340948755</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>675.8736340948755</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839441</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1920.79225782541</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1729.106373652236</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1507.339758221762</v>
       </c>
       <c r="U43" t="n">
-        <v>1764.65758193153</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V43" t="n">
-        <v>1764.65758193153</v>
+        <v>963.5524031415189</v>
       </c>
       <c r="W43" t="n">
-        <v>1475.240411894569</v>
+        <v>674.1352331045583</v>
       </c>
       <c r="X43" t="n">
-        <v>1247.250860996552</v>
+        <v>446.145682206541</v>
       </c>
       <c r="Y43" t="n">
-        <v>1026.458281853022</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143013</v>
@@ -7634,10 +7636,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001581</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089252</v>
@@ -7646,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277741</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563075</v>
       </c>
       <c r="L44" t="n">
-        <v>1797.117834600128</v>
+        <v>1557.603359811486</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483413</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542198</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232727</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679675</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7679,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973193</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161923</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.205333554941</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494856</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763705</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089886</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468562</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390124</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193607</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320276</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454333</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008789</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426846</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7804,52 +7806,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953304</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442075</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518534</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952194</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862238</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1542.890966501056</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1542.890966501056</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>1425.777965250134</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.985386106604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992674</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.28657940933</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M11" t="n">
-        <v>288.7672650676784</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>315.167921710931</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9638,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>201.9664098701115</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M26" t="n">
-        <v>297.8289162490798</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,13 +10120,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>201.9664098701126</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10358,13 +10360,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>189.7998007892635</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>411.0304280899001</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10823,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>315.167921710931</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>411.0304280898992</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11078,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>411.0304280898992</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476666</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>191.6721526230236</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>41.42635057212632</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>129.4563639904375</v>
       </c>
       <c r="H16" t="n">
-        <v>126.486218812281</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.99732345939674</v>
+        <v>123.8610598520844</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>69.12041821276419</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24175,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.23169028657253</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>53.6743741267743</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>3.556976973656731</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>140.0538944707216</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>137.2810468259682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,22 +24888,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.7051100255849</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>71.72936453719984</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>54.59999273312205</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696628</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>110.2237906382746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.9505873827507</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>84.85180572133189</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>28.12636019283323</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>53.73645647354618</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143207</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983792</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>105.0742887270072</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>109.7677841506239</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>812611.0943362731</v>
+        <v>812611.094336273</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="12">
@@ -26314,16 +26316,16 @@
         <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="E2" t="n">
-        <v>655184.9483635226</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="G2" t="n">
         <v>655184.9483635223</v>
@@ -26335,25 +26337,25 @@
         <v>655184.9483635224</v>
       </c>
       <c r="J2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="K2" t="n">
         <v>655184.9483635224</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="M2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="N2" t="n">
         <v>655184.9483635223</v>
-      </c>
-      <c r="L2" t="n">
-        <v>655184.9483635224</v>
-      </c>
-      <c r="M2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="N2" t="n">
-        <v>655184.9483635225</v>
       </c>
       <c r="O2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.948363522</v>
+        <v>655184.9483635222</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.270016921102069e-09</v>
       </c>
     </row>
     <row r="4">
@@ -26418,31 +26420,31 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
@@ -26451,13 +26453,13 @@
         <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="O4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709167</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26488,13 +26490,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26509,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371372</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.0935323504</v>
+        <v>-187674.0935323505</v>
       </c>
       <c r="C6" t="n">
-        <v>402293.7856821943</v>
+        <v>402293.7856821941</v>
       </c>
       <c r="D6" t="n">
-        <v>402293.7856821942</v>
+        <v>402293.7856821939</v>
       </c>
       <c r="E6" t="n">
-        <v>-190195.5918806898</v>
+        <v>-190195.5918806899</v>
       </c>
       <c r="F6" t="n">
-        <v>537181.8221127167</v>
+        <v>537181.8221127169</v>
       </c>
       <c r="G6" t="n">
         <v>537181.8221127169</v>
@@ -26546,22 +26548,22 @@
         <v>360758.602920124</v>
       </c>
       <c r="K6" t="n">
+        <v>537181.822112717</v>
+      </c>
+      <c r="L6" t="n">
+        <v>537181.8221127171</v>
+      </c>
+      <c r="M6" t="n">
+        <v>407539.5072737721</v>
+      </c>
+      <c r="N6" t="n">
         <v>537181.8221127169</v>
-      </c>
-      <c r="L6" t="n">
-        <v>537181.822112717</v>
-      </c>
-      <c r="M6" t="n">
-        <v>407539.5072737719</v>
-      </c>
-      <c r="N6" t="n">
-        <v>537181.8221127171</v>
       </c>
       <c r="O6" t="n">
         <v>537181.8221127169</v>
       </c>
       <c r="P6" t="n">
-        <v>537181.8221127165</v>
+        <v>537181.8221127145</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170865</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593302</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.04469402853306</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>383.9384117143122</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>215.2702419906777</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>17.25436541380054</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>72.65544900068801</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>203.785840190857</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>168.5173763857508</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>176.4259037272428</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>274.1044492221992</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>256.794139653395</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>218.9182663542171</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.1649408938762</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30274,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31849,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837925</v>
@@ -32321,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33752,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34214,13 +34216,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681611</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844682</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974805</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054954</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003827</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623216</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575019</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095048</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099083</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746433</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781704</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806982</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451126</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345289</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502574</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798538</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752282</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353169</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138812</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233368</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837943</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002941</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987496</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905546</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623833</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898528</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046222</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430544</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311885</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742037</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297395</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702031</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098829</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316442</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883125</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.768002308601</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802177</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895886</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712242</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553047</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780298</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328948</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856238</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M11" t="n">
-        <v>827.6883808979052</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004592</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35896,16 +35898,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>713.9299079303029</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36121,7 +36123,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>470.444344195426</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
@@ -36133,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36358,13 +36360,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>539.157696425512</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M26" t="n">
-        <v>836.7500320793066</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36613,7 +36615,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,13 +36840,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>740.8875257003393</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,13 +37080,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>588.5617870086354</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>866.6205424822323</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37543,28 +37545,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>713.9299079303029</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>323.786018525724</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>866.6205424822314</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37798,10 +37800,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37864,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407875</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265669</v>
       </c>
       <c r="L44" t="n">
-        <v>866.6205424822314</v>
+        <v>455.5901143923343</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302292</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412914</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845358881</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908565</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636256</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152081</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597779</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609579</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134007</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013185</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600461</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859639</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127281</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306668</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443203</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170199</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934848</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675411</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226406</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451112</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789417</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2963799.782719396</v>
+        <v>2958078.170751511</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095089</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>160.992131640058</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.299526941741362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>171.6868869030085</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.3302879382942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>334.2205967410234</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>97.34549717191138</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>4.726971031682301</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>49.28375166179438</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>97.88890196728795</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>242.5156439484329</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>33.21937696961096</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292569</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>27.87679665314561</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>285.2864818928698</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>36.56944426859069</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.72359350001044</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9801479190403</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>282.6548612319561</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>41.85858603877477</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>27.19292662790628</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>66.06391530585695</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192018</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>90.15502218119873</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>165.6570697579662</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>36.41670903610059</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.29623371587715</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>104.3550540205965</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>79.49505480544802</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.19569619650115</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881755</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851108</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004706</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>84.69473660443454</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>109.9022384814633</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1301.733371838703</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>943.4676732319524</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>557.6794206337081</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1638.455051716319</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610024</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>554.7078863246074</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917581</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C5" t="n">
-        <v>962.9693282917581</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>962.9693282917581</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>962.9693282917581</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2367.614128840753</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="6">
@@ -4649,28 +4649,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511405</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="X7" t="n">
-        <v>648.9304977249103</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="Y7" t="n">
-        <v>428.1379185813802</v>
+        <v>723.3542659926137</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1485.946714969784</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C8" t="n">
-        <v>1116.984198029372</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1859.412473230863</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.946714969784</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.946714969784</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.925993846823</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518747</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.23671557753</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906984</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5144,10 +5144,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>974.4454116758762</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C13" t="n">
-        <v>805.5092287479694</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D13" t="n">
-        <v>655.3925893356336</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1928.185085646981</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1928.185085646981</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V13" t="n">
-        <v>1673.500597441094</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W13" t="n">
-        <v>1384.083427404133</v>
+        <v>1191.724198940191</v>
       </c>
       <c r="X13" t="n">
-        <v>1156.093876506116</v>
+        <v>963.7346480421742</v>
       </c>
       <c r="Y13" t="n">
-        <v>1156.093876506116</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143013</v>
@@ -5266,10 +5266,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,25 +5278,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188665</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,58 +5333,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>692.8920075170273</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C16" t="n">
-        <v>523.9558245891204</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D16" t="n">
-        <v>523.9558245891204</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>376.0427310067273</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>376.0427310067273</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384228</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W16" t="n">
-        <v>874.540472347267</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X16" t="n">
-        <v>874.540472347267</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.540472347267</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5521,46 +5521,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.5459590456827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1355.643526557401</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1066.226356520441</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>1066.226356520441</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>970.5459590456827</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5767,13 +5767,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5785,13 +5785,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,10 +5831,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1533.364503225429</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1278.680015019542</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>989.2628449825811</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>761.2732940845638</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>540.4807149410336</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,16 +5995,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3086.205473691319</v>
+        <v>508.0400813400983</v>
       </c>
       <c r="C25" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D25" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816073</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>4079.089261975713</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>3824.404773769827</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>3534.987603732866</v>
+        <v>956.8222113816457</v>
       </c>
       <c r="X25" t="n">
-        <v>3306.998052834849</v>
+        <v>728.8326604836284</v>
       </c>
       <c r="Y25" t="n">
-        <v>3086.205473691319</v>
+        <v>508.0400813400983</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,40 +6211,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,16 +6335,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>270.9417306852383</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.5901955154781</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L29" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
         <v>4461.783306331037</v>
@@ -6518,58 +6518,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1889.61223852303</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1667.845623092556</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1378.7427562182</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1124.058268012313</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>834.6410979753522</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>834.6410979753522</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.848518831822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,43 +6679,43 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972659</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345674</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107236</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,16 +6809,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3789.893669780146</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C34" t="n">
-        <v>3620.957486852239</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D34" t="n">
-        <v>3470.840847439903</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E34" t="n">
-        <v>3322.92775385751</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>3176.0378063596</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>3008.334969734319</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763411</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T34" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U34" t="n">
-        <v>4488.948855545364</v>
+        <v>1577.410141987874</v>
       </c>
       <c r="V34" t="n">
-        <v>4488.948855545364</v>
+        <v>1410.079768494979</v>
       </c>
       <c r="W34" t="n">
-        <v>4199.531685508403</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="X34" t="n">
-        <v>3971.542134610386</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="Y34" t="n">
-        <v>3971.542134610386</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="35">
@@ -6922,10 +6922,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6937,22 +6937,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L35" t="n">
-        <v>1797.117834600129</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M35" t="n">
-        <v>2330.649739272054</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330836</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107237</v>
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7019,7 +7019,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320243</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C37" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.051722419721</v>
+        <v>1919.558911522784</v>
       </c>
       <c r="S37" t="n">
-        <v>4586.365838246547</v>
+        <v>1727.87302734961</v>
       </c>
       <c r="T37" t="n">
-        <v>4364.599222816073</v>
+        <v>1506.106411919136</v>
       </c>
       <c r="U37" t="n">
-        <v>4075.496355941717</v>
+        <v>1217.00354504478</v>
       </c>
       <c r="V37" t="n">
-        <v>3820.81186773583</v>
+        <v>962.3190568388932</v>
       </c>
       <c r="W37" t="n">
-        <v>3531.394697698869</v>
+        <v>672.9018868019325</v>
       </c>
       <c r="X37" t="n">
-        <v>3303.405146800852</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y37" t="n">
-        <v>3082.612567657322</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>1622.425187676631</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7201,7 +7201,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468568</v>
@@ -7253,19 +7253,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>368.3587133864212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>339.7766591279594</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>339.7766591279594</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>339.7766591279594</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7365,19 +7365,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>998.7893082582084</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X40" t="n">
-        <v>770.7997573601911</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y40" t="n">
-        <v>550.0071782166609</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>416.1091927888612</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1070.832524924161</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844494</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903276</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264.4972173763013</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1920.79225782541</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1729.106373652236</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1507.339758221762</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1218.236891347406</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>963.5524031415189</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>674.1352331045583</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>446.145682206541</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>446.145682206541</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="44">
@@ -7627,73 +7627,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001581</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277741</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563075</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811486</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483413</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542198</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232727</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679675</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161923</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494856</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763705</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089886</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390124</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193607</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320276</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142067</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953304</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442075</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927045</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952194</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862238</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476829</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9169,25 +9169,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>77.35795430876999</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400276</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>297.8289162490818</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L35" t="n">
-        <v>241.9338129178262</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>19.79750571619297</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.9990175570114</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476666</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>191.6721526230236</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.2365164437212</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>129.4563639904375</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>123.8610598520844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.23169028657253</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.556976973656731</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>244.6644122978162</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>140.0538944707216</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7051100255849</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>16.14213605696744</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>54.59999273312205</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>86.48057356586176</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696628</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>52.51544363394674</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.9505873827507</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>182.1679443159945</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>69.12041821276433</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.73645647354618</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983792</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>105.0742887270072</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380333</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380333</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380331</v>
-      </c>
       <c r="E2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="G2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="H2" t="n">
-        <v>655184.9483635226</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="I2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="J2" t="n">
+        <v>655184.9483635221</v>
+      </c>
+      <c r="K2" t="n">
         <v>655184.9483635225</v>
       </c>
-      <c r="K2" t="n">
-        <v>655184.9483635224</v>
-      </c>
       <c r="L2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="M2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="N2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="O2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635224</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389451</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.270016921102069e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,7 +26426,7 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709186</v>
@@ -26438,28 +26438,28 @@
         <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.6079970919</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21619.60799709182</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709184</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709167</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26484,13 +26484,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26499,7 +26499,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371372</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.0935323505</v>
+        <v>-187674.09353235</v>
       </c>
       <c r="C6" t="n">
+        <v>402293.7856821944</v>
+      </c>
+      <c r="D6" t="n">
         <v>402293.7856821941</v>
       </c>
-      <c r="D6" t="n">
-        <v>402293.7856821939</v>
-      </c>
       <c r="E6" t="n">
-        <v>-190195.5918806899</v>
+        <v>-190867.5467829475</v>
       </c>
       <c r="F6" t="n">
-        <v>537181.8221127169</v>
+        <v>536509.8672104593</v>
       </c>
       <c r="G6" t="n">
-        <v>537181.8221127169</v>
+        <v>536509.867210459</v>
       </c>
       <c r="H6" t="n">
-        <v>537181.8221127172</v>
+        <v>536509.8672104591</v>
       </c>
       <c r="I6" t="n">
-        <v>537181.822112717</v>
+        <v>536509.8672104591</v>
       </c>
       <c r="J6" t="n">
-        <v>360758.602920124</v>
+        <v>360086.6480178655</v>
       </c>
       <c r="K6" t="n">
-        <v>537181.822112717</v>
+        <v>536509.8672104594</v>
       </c>
       <c r="L6" t="n">
-        <v>537181.8221127171</v>
+        <v>536509.8672104588</v>
       </c>
       <c r="M6" t="n">
-        <v>407539.5072737721</v>
+        <v>406867.5523715136</v>
       </c>
       <c r="N6" t="n">
-        <v>537181.8221127169</v>
+        <v>536509.8672104588</v>
       </c>
       <c r="O6" t="n">
-        <v>537181.8221127169</v>
+        <v>536509.867210459</v>
       </c>
       <c r="P6" t="n">
-        <v>537181.8221127145</v>
+        <v>536509.8672104591</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>245.8839141016534</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>383.9384117143122</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>54.02276848602867</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.25436541380054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>72.65544900068801</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>230.4067612982235</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>24.395778923232</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>176.4259037272428</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>256.794139653395</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>218.9182663542171</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30273,10 +30273,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T38" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31849,7 +31849,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837925</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H30" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987485</v>
@@ -33289,10 +33289,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q31" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H33" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002942</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q34" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681611</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844682</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974805</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003827</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781704</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451126</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353169</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233368</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970268</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987496</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.5396634623833</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311885</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742037</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297395</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098829</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883125</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802177</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895886</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712242</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004592</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.755584535902</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35889,25 +35889,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>585.4109551969891</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36135,16 +36135,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282465</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q30" t="n">
         <v>159.233896612727</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>836.7500320793082</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509642</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985964</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L35" t="n">
-        <v>697.5239273101583</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>558.7186215464197</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>323.786018525724</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407875</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265669</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923343</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302292</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412914</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845358881</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908565</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636256</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152081</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597779</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609579</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013185</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127281</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306668</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443203</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170199</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934848</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675411</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226406</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451112</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789417</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2958078.170751511</v>
+        <v>2961483.66187596</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>160.992131640058</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>91.53296918251006</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>139.4590629217827</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>171.6868869030085</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>63.10802839794265</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>97.34549717191138</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>131.7751099185632</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.726971031682301</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>242.5156439484329</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>61.22388539774963</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690833</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292569</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>72.57251122165295</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>285.2864818928698</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>71.4936743037169</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2298,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>147.0633545968146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>104.0438938896184</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>41.85858603877477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.4068132192018</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>224.7562560951389</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V34" t="n">
-        <v>165.6570697579662</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>36.41670903610059</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>104.3550540205965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>79.49505480544802</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>109.9022384814633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1670.695888779115</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="C2" t="n">
-        <v>1301.733371838703</v>
+        <v>1688.333211902825</v>
       </c>
       <c r="D2" t="n">
-        <v>943.4676732319524</v>
+        <v>1688.333211902825</v>
       </c>
       <c r="E2" t="n">
-        <v>557.6794206337081</v>
+        <v>1302.54495930458</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>891.5590545149728</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>473.5952464131597</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>146.4005264491625</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.0594214943678</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943678</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>554.7078863246074</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.7078863246074</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2578.37491831847</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2359.740251290533</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2105.978465928625</v>
       </c>
       <c r="V5" t="n">
-        <v>2367.614128840753</v>
+        <v>1774.915578585054</v>
       </c>
       <c r="W5" t="n">
-        <v>2014.845473570639</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="X5" t="n">
-        <v>1641.379715309559</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.240383333747</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>573.2376265802779</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>573.2376265802779</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>401.70547814981</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>232.7056778881424</v>
       </c>
       <c r="H7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>723.3542659926137</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5020,52 +5020,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089254</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
         <v>4667.761053946815</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5144,16 +5144,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.2936040684043</v>
+        <v>782.7224647594991</v>
       </c>
       <c r="C13" t="n">
-        <v>561.2936040684043</v>
+        <v>613.7862818315922</v>
       </c>
       <c r="D13" t="n">
-        <v>411.1769646560685</v>
+        <v>463.6696424192564</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>315.7565488368633</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>168.866601338953</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.57685067423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.892362468343</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.724198940191</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X13" t="n">
-        <v>963.7346480421742</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.942068898644</v>
+        <v>964.3709295897388</v>
       </c>
     </row>
     <row r="14">
@@ -5260,55 +5260,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>722.4071781934688</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075804</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432983</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.4168978689405</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1883.949150983575</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1629.264662777688</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1339.847492740728</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.85794184271</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.0653626991802</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5533,34 +5533,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,46 +5731,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>419.327655504578</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>753.1470291944245</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O20" t="n">
-        <v>3944.053400686433</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4338.827767043611</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5785,13 +5785,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5831,10 +5831,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5998,37 +5998,37 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>508.0400813400983</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>956.8222113816457</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>728.8326604836284</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>508.0400813400983</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,7 +6211,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6223,34 +6223,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>888.4135721382777</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6423,13 +6423,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,73 +6442,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074197</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.259539097266</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,58 +6518,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="32">
@@ -6679,73 +6679,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074197</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972659</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345674</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>1897.67628410419</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
         <v>2877.428556330836</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6776,25 +6776,25 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902953</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987874</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V34" t="n">
-        <v>1410.079768494979</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W34" t="n">
-        <v>1120.662598458018</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X34" t="n">
-        <v>1120.662598458018</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1120.662598458018</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6925,64 +6925,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522032</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1919.558911522784</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1727.87302734961</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1506.106411919136</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1217.00354504478</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>962.3190568388932</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>672.9018868019325</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>444.9123359039152</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,7 +7159,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7171,34 +7171,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1682.725100522032</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.3568109459524</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7666,34 +7666,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.6138567886371</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C46" t="n">
-        <v>245.6776738607302</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1334.461621697385</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>1045.044451660424</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>817.0549007624069</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y46" t="n">
-        <v>596.2623216188767</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704173</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8929,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>105.1996354507095</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704173</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>77.35795430876999</v>
+        <v>77.3579543087709</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>136.2499899971294</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,19 +9409,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9646,22 +9646,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>136.249989997129</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,16 +9889,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400276</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>297.8289162490818</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>93.45329703737528</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23466,25 +23466,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>1.2365164437212</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,13 +23703,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>147.0909790483779</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>182.1679443159945</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>244.6644122978162</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696744</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>61.76674224145208</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25131,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V34" t="n">
-        <v>86.48057356586176</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>52.51544363394674</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>182.1679443159945</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>69.12041821276433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755427.9998083308</v>
+        <v>755427.9998083307</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755427.9998083307</v>
+        <v>755427.9998083308</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380333</v>
@@ -26325,37 +26325,37 @@
         <v>655184.9483635225</v>
       </c>
       <c r="F2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="G2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="H2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="I2" t="n">
+        <v>655184.9483635222</v>
+      </c>
+      <c r="J2" t="n">
         <v>655184.9483635226</v>
       </c>
-      <c r="G2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>655184.9483635221</v>
+      </c>
+      <c r="L2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="M2" t="n">
         <v>655184.9483635224</v>
       </c>
-      <c r="I2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="J2" t="n">
-        <v>655184.9483635221</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>655184.9483635225</v>
       </c>
-      <c r="L2" t="n">
-        <v>655184.9483635222</v>
-      </c>
-      <c r="M2" t="n">
-        <v>655184.9483635222</v>
-      </c>
-      <c r="N2" t="n">
-        <v>655184.9483635222</v>
-      </c>
       <c r="O2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389451</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709183</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.6079970919</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709189</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709182</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.09353235</v>
+        <v>-187674.0935323501</v>
       </c>
       <c r="C6" t="n">
-        <v>402293.7856821944</v>
+        <v>402293.7856821943</v>
       </c>
       <c r="D6" t="n">
         <v>402293.7856821941</v>
       </c>
       <c r="E6" t="n">
-        <v>-190867.5467829475</v>
+        <v>-190262.7873709154</v>
       </c>
       <c r="F6" t="n">
-        <v>536509.8672104593</v>
+        <v>537114.6266224912</v>
       </c>
       <c r="G6" t="n">
-        <v>536509.867210459</v>
+        <v>537114.6266224912</v>
       </c>
       <c r="H6" t="n">
-        <v>536509.8672104591</v>
+        <v>537114.6266224913</v>
       </c>
       <c r="I6" t="n">
-        <v>536509.8672104591</v>
+        <v>537114.6266224909</v>
       </c>
       <c r="J6" t="n">
-        <v>360086.6480178655</v>
+        <v>360691.4074298985</v>
       </c>
       <c r="K6" t="n">
-        <v>536509.8672104594</v>
+        <v>537114.6266224908</v>
       </c>
       <c r="L6" t="n">
-        <v>536509.8672104588</v>
+        <v>537114.6266224913</v>
       </c>
       <c r="M6" t="n">
-        <v>406867.5523715136</v>
+        <v>407472.3117835465</v>
       </c>
       <c r="N6" t="n">
-        <v>536509.8672104588</v>
+        <v>537114.6266224913</v>
       </c>
       <c r="O6" t="n">
-        <v>536509.867210459</v>
+        <v>537114.6266224913</v>
       </c>
       <c r="P6" t="n">
-        <v>536509.8672104591</v>
+        <v>537114.6266224913</v>
       </c>
     </row>
   </sheetData>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>520.2256578503747</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>520.2256578503744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>245.8839141016534</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>60.39834706235119</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>40.37291726015457</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>54.02276848602867</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>111.3076844110289</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>230.4067612982235</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.39577892323197</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.395778923232</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>164.3604017932786</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>325.0140532583039</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717195</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987485</v>
@@ -33289,10 +33289,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002942</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552608</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35649,28 +35649,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>442.39092200611</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552608</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>585.4109551969891</v>
+        <v>585.41095519699</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>327.036990965842</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36129,19 +36129,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>318.3309425707625</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>387.0442948008485</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>440.977533040914</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,16 +36609,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427823</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282465</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222467</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.233896612727</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923318</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>836.7500320793082</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248953</v>
+        <v>869.8164615235258</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509642</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.635950985964</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37782,19 +37782,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
